--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267615</v>
+        <v>3576694.10419433</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>224.9789422351118</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.220846587376222</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>133.5262229738439</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>190.6440902478826</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>203.4405089089847</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.6603707523042</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>184.6739744009184</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634836</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703245</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="F40" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428054</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018862</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.8716139843721</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>799.8716139843721</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>441.6059153776216</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>441.6059153776216</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>434.6604146284181</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>799.8716139843721</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>940.9219833362306</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>940.9219833362306</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>940.9219833362306</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>933.9764825870271</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>516.012674485214</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>188.8179545212168</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1205.204479880303</v>
+        <v>768.0868113774663</v>
       </c>
       <c r="C8" t="n">
-        <v>836.241962939891</v>
+        <v>399.1242944370546</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331405</v>
+        <v>399.1242944370546</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1178.217417104729</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1809.935228088041</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2575.269928642158</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2575.269928642158</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2321.578225387309</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.578225387309</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>1968.809570117194</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.343811856114</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.204479880303</v>
+        <v>1154.686651441588</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>75.36635275580475</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>461.2749290456303</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>461.2749290456303</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,16 +5413,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5735,25 +5735,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6069,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192923</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111748</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107584</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121627</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121626</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121625</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121624</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G37" t="n">
-        <v>235.528494205774</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121636</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121635</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121634</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121633</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270431</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,10 +8456,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>396.8068357669996</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>27.87297380358524</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194441</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582666</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194343</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194183</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.010465936594771e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682826</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682729</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.53656668276</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682564</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682656</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26525,43 +26525,43 @@
         <v>466682.1435980195</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042243</v>
+        <v>310878.3375042245</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581409</v>
+        <v>-131276.8909835767</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.5383226654</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300723</v>
+        <v>463352.5812046367</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.80039723</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226654</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.0276146071</v>
+        <v>515567.2896891714</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.80039723</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.80039723</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226658</v>
+        <v>639775.8003972298</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>188.8052277856832</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0610276546015</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>18.40509327101739</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>25.80423010977515</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>178.4898611632771</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>33.99251637583596</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>41.03568098811877</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-3.038768317435761e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30444,10 +30444,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-6.988283135134386e-14</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.126308242074346e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067264</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>537.5428517682655</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,10 +35188,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>21.63976862165687</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236320508</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
